--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44509,6 +44509,41 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>16100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44544,6 +44544,41 @@
         <v>16100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44579,6 +44579,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44614,6 +44614,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44649,6 +44649,43 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44686,6 +44686,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>63400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44721,6 +44721,43 @@
         <v>63400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44758,6 +44758,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44795,6 +44795,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44830,6 +44830,41 @@
         <v>1700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>98200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44865,6 +44865,41 @@
         <v>98200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>195600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44900,6 +44900,41 @@
         <v>195600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>61000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44935,6 +44935,76 @@
         <v>61000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>327100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45005,6 +45005,78 @@
         <v>327100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45077,6 +45077,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45112,6 +45112,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45147,6 +45147,41 @@
         <v>6600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>73800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45182,6 +45182,78 @@
         <v>73800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45254,6 +45254,41 @@
         </is>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>50600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45289,6 +45289,41 @@
         <v>50600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>129300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2009"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72239,6 +72239,41 @@
         <v>129300</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>246900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2010"/>
+  <dimension ref="A1:I2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72274,6 +72274,41 @@
         <v>246900</v>
       </c>
     </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2011"/>
+  <dimension ref="A1:I2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72309,6 +72309,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2012"/>
+  <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72344,6 +72344,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72379,6 +72379,43 @@
         <v>1600</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2014" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2014"/>
+  <dimension ref="A1:I2015"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72416,6 +72416,43 @@
         </is>
       </c>
     </row>
+    <row r="2015">
+      <c r="A2015" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2015" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2015" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2015" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G2015" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I2015" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2015"/>
+  <dimension ref="A1:I2016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72453,6 +72453,41 @@
         </is>
       </c>
     </row>
+    <row r="2016">
+      <c r="A2016" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2016" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2016" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2016" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2016" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>4600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2016"/>
+  <dimension ref="A1:I2017"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72488,6 +72488,43 @@
         <v>4600</v>
       </c>
     </row>
+    <row r="2017">
+      <c r="A2017" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2017" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2017" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2017" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2017"/>
+  <dimension ref="A1:I2018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72525,6 +72525,43 @@
         </is>
       </c>
     </row>
+    <row r="2018">
+      <c r="A2018" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2018" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2018" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2018" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2018" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2018" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2018"/>
+  <dimension ref="A1:I2019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72562,6 +72562,43 @@
         </is>
       </c>
     </row>
+    <row r="2019">
+      <c r="A2019" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2019" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2019" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2019" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2019" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2019" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2019"/>
+  <dimension ref="A1:I2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72599,6 +72599,41 @@
         </is>
       </c>
     </row>
+    <row r="2020">
+      <c r="A2020" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2020" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2020" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2020" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2020" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2020"/>
+  <dimension ref="A1:I2021"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72634,6 +72634,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2021">
+      <c r="A2021" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2021" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2021" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2021" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2021" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I2021" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2021"/>
+  <dimension ref="A1:I2022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72671,6 +72671,41 @@
         </is>
       </c>
     </row>
+    <row r="2022">
+      <c r="A2022" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2022" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2022" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2022" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>4600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5886.xlsx
+++ b/data/5886.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2022"/>
+  <dimension ref="A1:I2023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72706,6 +72706,41 @@
         <v>4600</v>
       </c>
     </row>
+    <row r="2023">
+      <c r="A2023" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2023" t="inlineStr">
+        <is>
+          <t>5886</t>
+        </is>
+      </c>
+      <c r="D2023" t="inlineStr">
+        <is>
+          <t>MBG</t>
+        </is>
+      </c>
+      <c r="E2023" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2023" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
